--- a/Usermanagement/api_test_results.xlsx
+++ b/Usermanagement/api_test_results.xlsx
@@ -482,7 +482,7 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>500</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>500</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>404</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
         <v>401</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>200</v>
       </c>
       <c r="D7">
-        <v>156</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>200</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
